--- a/EPPlusTest/Resources/ExternalReferences.xlsx
+++ b/EPPlusTest/Resources/ExternalReferences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larissa.hohaus\Desktop\Testdatein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\EPPlus\EPPlus010818\EPPlusTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{227B6A06-363C-4EA3-B19A-BD236B39B8EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA56AC4F-D4AF-40F7-8031-6706A2E712A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
@@ -88,6 +89,76 @@
         <row r="1">
           <cell r="A1">
             <v>20</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5">
+            <v>11</v>
+          </cell>
+          <cell r="C5">
+            <v>12</v>
+          </cell>
+          <cell r="D5">
+            <v>13</v>
+          </cell>
+          <cell r="E5">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>21</v>
+          </cell>
+          <cell r="C6">
+            <v>22</v>
+          </cell>
+          <cell r="D6">
+            <v>23</v>
+          </cell>
+          <cell r="E6">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>31</v>
+          </cell>
+          <cell r="C7">
+            <v>32</v>
+          </cell>
+          <cell r="D7">
+            <v>33</v>
+          </cell>
+          <cell r="E7">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>41</v>
+          </cell>
+          <cell r="C8">
+            <v>42</v>
+          </cell>
+          <cell r="D8">
+            <v>43</v>
+          </cell>
+          <cell r="E8">
+            <v>44</v>
           </cell>
         </row>
       </sheetData>
@@ -393,16 +464,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>20+[1]Tabelle1!$A$1</f>
-        <v>40</v>
+        <f>30+[1]Tabelle1!$A$1+10</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>30+[1]Tabelle1!$A$1+10</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>INDEX(B11:E14,2,3)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>INDEX([2]Tabelle1!B5:E8,2,3)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
